--- a/biology/Botanique/Olea_salicifolia/Olea_salicifolia.xlsx
+++ b/biology/Botanique/Olea_salicifolia/Olea_salicifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea salicifolia Wallich ex G. Don est une espèce végétale appartenant au genre Olea. C'est un arbuste ou un arbre qui pousse dans une grande partie de l'Asie, depuis l'Inde jusqu'à la Chine (en langue chinoise translittérée : xi ma mu xi lan).
 </t>
@@ -513,17 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Appareil végétatif
-Ce sont de petits arbres polygames-dioïques, c'est-à-dire fonctionnellement dioïques, mais avec quelques fleurs du sexe opposé ou quelques fleurs bisexuées[2]. Les petites branches sont sub-cylindriques et allongées (« terete »), glabres[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de petits arbres polygames-dioïques, c'est-à-dire fonctionnellement dioïques, mais avec quelques fleurs du sexe opposé ou quelques fleurs bisexuées. Les petites branches sont sub-cylindriques et allongées (« terete »), glabres.
 Le pétiole des feuilles mesure de 5 à 10 mm. Le limbe des feuilles est lancéolé à elliptique-lancéolé (7-)10 à 15(-23) par (2-)3 à 4,5(-7) cm, assez coriace, glabre, la base en coin à largement ainsi ou obtuse, la est entière, l'apex est long, aigu-acuminé. Les nervures primaires sont au nombre de 7 à 9 de chaque côté de la nervure centrale, assez sombres..
-Appareil reproducteur
-Les inflorescences sont des panicules axillaires de 4 à 12 cm, très finement pubescents. Le pédicelle mesure de 0 à 3 mm. Les fleurs ont un calice quadrilobé de 0,5 mm.
-Les fruits sont des drupes étroitement ovoïdes, de 1,2 à 1,5 cm par 5 à 7 mm. La floraison intervient en juin et la fructification en septembre.
-Répartition géographique
-En Chine, on le trouve dans les bois sur les pentes, depuis le niveau de la mer jusqu'à 1.400 m. On le rencontre dans les provinces de Xizang, Guangdong, Guangxi, Guizhou [s.e.] et Yunnan.
-En Inde (Arunachal Pradesh, Manipur, Meghalaya et Mizoram).
-En Indochine : Birmanie, Cambodge, Laos, Thaïlande et Vietnam.
-En Malaisie péninsulaire.</t>
+</t>
         </is>
       </c>
     </row>
@@ -548,10 +558,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont des panicules axillaires de 4 à 12 cm, très finement pubescents. Le pédicelle mesure de 0 à 3 mm. Les fleurs ont un calice quadrilobé de 0,5 mm.
+Les fruits sont des drupes étroitement ovoïdes, de 1,2 à 1,5 cm par 5 à 7 mm. La floraison intervient en juin et la fructification en septembre.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,10 +596,79 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En Chine, on le trouve dans les bois sur les pentes, depuis le niveau de la mer jusqu'à 1.400 m. On le rencontre dans les provinces de Xizang, Guangdong, Guangxi, Guizhou [s.e.] et Yunnan.
+En Inde (Arunachal Pradesh, Manipur, Meghalaya et Mizoram).
+En Indochine : Birmanie, Cambodge, Laos, Thaïlande et Vietnam.
+En Malaisie péninsulaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olea_salicifolia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_salicifolia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olea_salicifolia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_salicifolia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
